--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4338953-EC97-C646-914D-C343716134AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F53FABE-3A4B-A041-9D08-0BF8BC9776FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,10 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LCI!$A$1:$K$366</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="159">
   <si>
     <t>Activity</t>
   </si>
@@ -493,9 +496,6 @@
     <t>air compressor, screw-type compressor, 300kW</t>
   </si>
   <si>
-    <t>heat exchanger, carbon dioxide capture process</t>
-  </si>
-  <si>
     <t>chemical factory construction, organics</t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>Hydrogen, gaseous, 25 bar</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
+    <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
   </si>
 </sst>
 </file>
@@ -668,18 +668,15 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -690,8 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -701,10 +697,7 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1025,7 +1018,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1059,12 +1052,12 @@
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1072,426 +1065,422 @@
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
         <v>19</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>2.42</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1.37</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9">
         <v>44</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <f>D12*C12</f>
         <v>16.059999999999999</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <f>E12/SUM($E$12:$E$15)</f>
         <v>0.36968151224138407</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <f>F12*$D$10/D12</f>
         <v>2.451039067463423</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="12">
         <f>-$H$10*G12</f>
         <v>-3.35792352242489</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>3.16</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="12">
         <f>I12+H12</f>
         <v>-0.19792352242488986</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
         <v>45.5</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <f t="shared" ref="E13:E15" si="0">D13*C13</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <f t="shared" ref="F13:F15" si="1">E13/SUM($E$12:$E$15)</f>
         <v>9.0072463100905095E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <f t="shared" ref="G13:G15" si="2">F13*$D$10/D13</f>
         <v>2.5345972174905853</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="12">
         <f t="shared" ref="H13:H15" si="3">-$H$10*G13</f>
         <v>-3.472398187962102</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>3.01</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="12">
         <f t="shared" ref="J13:J15" si="4">I13+H13</f>
         <v>-0.46239818796210219</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
         <v>43.4</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>4.4701999999999993</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <f t="shared" si="1"/>
         <v>0.10289852403620392</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <f t="shared" si="2"/>
         <v>2.4176158074525582</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <f t="shared" si="3"/>
         <v>-3.3121336562100052</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>3.14</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="12">
         <f t="shared" si="4"/>
         <v>-0.17213365621000509</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9">
         <v>42.6</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>18.999600000000001</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <f t="shared" si="1"/>
         <v>0.43734750062150696</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <f t="shared" si="2"/>
         <v>2.3730514607714053</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="12">
         <f t="shared" si="3"/>
         <v>-3.2510805012568254</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>3.14</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="12">
         <f t="shared" si="4"/>
         <v>-0.11108050125682523</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
         <v>19</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>2.42</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
         <v>1.37</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9">
         <v>44</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>0.183</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <f>D21*C21</f>
         <v>8.0519999999999996</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="13">
         <f>E21/SUM($E$21:$E$24)</f>
         <v>0.18519540737469639</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <f>F21*$D$19/D21</f>
         <v>2.4490321630970779</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="12">
         <f>-$H$19*G21</f>
         <v>-3.355174063442997</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <v>3.16</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="12">
         <f>I21+H21</f>
         <v>-0.19517406344299681</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
         <v>45.5</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <f t="shared" ref="E22:E24" si="5">D22*C22</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <f t="shared" ref="F22:F24" si="6">E22/SUM($E$21:$E$24)</f>
         <v>8.9998712004121587E-2</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <f t="shared" ref="G22:G24" si="7">F22*$D$19/D22</f>
         <v>2.5325218959299334</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="12">
         <f t="shared" ref="H22:H24" si="8">-$H$19*G22</f>
         <v>-3.4695549974240092</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="12">
         <v>3.01</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="12">
         <f t="shared" ref="J22:J24" si="9">I22+H22</f>
         <v>-0.4595549974240094</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9">
         <v>43.4</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <f t="shared" si="5"/>
         <v>20.224399999999999</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <f t="shared" si="6"/>
         <v>0.46515971148892321</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="14">
         <f t="shared" si="7"/>
         <v>2.4156362699639358</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="12">
         <f t="shared" si="8"/>
         <v>-3.3094216898505922</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <v>3.14</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="12">
         <f t="shared" si="9"/>
         <v>-0.16942168985059203</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9">
         <v>42.6</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="17">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <f t="shared" si="5"/>
         <v>11.289000000000001</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <f t="shared" si="6"/>
         <v>0.2596461691322588</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <f t="shared" si="7"/>
         <v>2.3711084124530801</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <f t="shared" si="8"/>
         <v>-3.2484185250607198</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <v>3.14</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="12">
         <f t="shared" si="9"/>
         <v>-0.10841852506071969</v>
       </c>
@@ -1500,223 +1489,223 @@
       <c r="A26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20">
         <v>19</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="21">
         <v>2.42</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20">
         <v>1.37</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20">
         <v>44</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="23">
         <v>0.4</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="23">
         <f t="shared" ref="F30:F33" si="10">E30*D30</f>
         <v>0.14599999999999999</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="24">
         <f>F30/SUM($F$30:$F$33)</f>
         <v>0.38761130550673545</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="25">
         <f>G30*$D$28/D30</f>
         <v>2.5699160529487663</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="26">
         <f>-$I$28*H30</f>
         <v>-3.5207849925398103</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="20">
         <v>3.16</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="26">
         <f>J30+I30</f>
         <v>-0.36078499253981011</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20">
         <v>45.5</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="27">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="23">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="23">
         <f t="shared" si="10"/>
         <v>2.3736E-2</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="24">
         <f t="shared" ref="G31:G33" si="11">F31/SUM($F$30:$F$33)</f>
         <v>6.3016040736355292E-2</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="26">
         <f t="shared" ref="H31:H33" si="12">G31*$D$28/D31</f>
         <v>1.773242076534649</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="26">
         <f t="shared" ref="I31:I33" si="13">-$I$28*H31</f>
         <v>-2.4293416448524692</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="26">
         <v>3.01</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="26">
         <f t="shared" ref="K31:K33" si="14">J31+I31</f>
         <v>0.58065835514753061</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20">
         <v>43.4</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="27">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="23">
         <v>0.71</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="23">
         <f t="shared" si="10"/>
         <v>7.3129999999999987E-2</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="24">
         <f t="shared" si="11"/>
         <v>0.19415078610758602</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="26">
         <f t="shared" si="12"/>
         <v>4.5616009939840598</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="26">
         <f t="shared" si="13"/>
         <v>-6.2493933617581625</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="26">
         <v>3.14</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="26">
         <f t="shared" si="14"/>
         <v>-3.1093933617581624</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20">
         <v>42.6</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="28">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="23">
         <v>0.3</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="23">
         <f t="shared" si="10"/>
         <v>0.1338</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="24">
         <f t="shared" si="11"/>
         <v>0.35522186764932334</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="25">
         <f t="shared" si="12"/>
         <v>1.927437039711575</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="26">
         <f t="shared" si="13"/>
         <v>-2.6405887444048579</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="20">
         <v>3.14</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="26">
         <f t="shared" si="14"/>
         <v>0.49941125559514221</v>
       </c>
@@ -1725,238 +1714,241 @@
       <c r="A35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20">
         <v>19</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="21">
         <v>2.42</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20">
         <v>1.37</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20">
         <v>44</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="22">
         <v>0.183</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="23">
         <v>0.4</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="23">
         <f t="shared" ref="F39:F42" si="15">E39*D39</f>
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="24">
         <f>F39/SUM($F$30:$F$33)</f>
         <v>0.19433662714447286</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="26">
         <f>G39*$D$37/D39</f>
         <v>2.5699160529487668</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="26">
         <f>-$I$28*H39</f>
         <v>-3.5207849925398107</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="20">
         <v>3.16</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="26">
         <f>J39+I39</f>
         <v>-0.36078499253981056</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20">
         <v>45.5</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="27">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="23">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="23">
         <f t="shared" si="15"/>
         <v>2.3736E-2</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="24">
         <f t="shared" ref="G40:G42" si="16">F40/SUM($F$30:$F$33)</f>
         <v>6.3016040736355292E-2</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="26">
         <f t="shared" ref="H40:H42" si="17">G40*$D$37/D40</f>
         <v>1.773242076534649</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="26">
         <f t="shared" ref="I40:I42" si="18">-$I$28*H40</f>
         <v>-2.4293416448524692</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="26">
         <v>3.01</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="26">
         <f t="shared" ref="K40:K42" si="19">J40+I40</f>
         <v>0.58065835514753061</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20">
         <v>43.4</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="27">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="23">
         <v>0.71</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="23">
         <f t="shared" si="15"/>
         <v>0.33085999999999999</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="24">
         <f t="shared" si="16"/>
         <v>0.87839093520519518</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="25">
         <f t="shared" si="17"/>
         <v>4.5616009939840598</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="26">
         <f t="shared" si="18"/>
         <v>-6.2493933617581625</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="26">
         <v>3.14</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="26">
         <f t="shared" si="19"/>
         <v>-3.1093933617581624</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20">
         <v>42.6</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="28">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="23">
         <v>0.3</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="23">
         <f t="shared" si="15"/>
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="24">
         <f t="shared" si="16"/>
         <v>0.21106232046428405</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="26">
         <f t="shared" si="17"/>
         <v>1.927437039711575</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="26">
         <f t="shared" si="18"/>
         <v>-2.6405887444048579</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="20">
         <v>3.14</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="26">
         <f t="shared" si="19"/>
         <v>0.49941125559514221</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{AB74FF8B-6007-0D49-AD0D-0F84D80538E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K367"/>
+  <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A341" sqref="A341"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2003,7 +1995,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2064,56 +2056,48 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>100</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1.00057</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2121,288 +2105,222 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="5">
         <f>(B12-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2432,7 +2350,7 @@
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2493,56 +2411,48 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3">
+      <c r="I33">
         <v>100</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>1.00057</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2550,288 +2460,222 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3" t="s">
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="5">
         <f>(B34-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="34" t="s">
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2861,7 +2705,7 @@
       <c r="A50" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2922,56 +2766,48 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3">
+      <c r="I55">
         <v>100</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>1.00057</v>
       </c>
       <c r="C56" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2979,288 +2815,222 @@
       <c r="A57" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3" t="s">
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3" t="s">
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B67" s="35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="5">
         <f>(B56-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="34" t="s">
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F67" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -3290,7 +3060,7 @@
       <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3351,56 +3121,48 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="A77" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3">
+      <c r="I77">
         <v>100</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" t="s">
         <v>53</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+      <c r="A78" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>1.00057</v>
       </c>
       <c r="C78" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3408,301 +3170,225 @@
       <c r="A79" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C79" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3" t="s">
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+      <c r="A80" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3" t="s">
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+      <c r="A81" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3" t="s">
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+      <c r="A82" t="s">
         <v>58</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3" t="s">
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>60</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3" t="s">
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>62</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3" t="s">
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="A85" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3" t="s">
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="A86" t="s">
         <v>64</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" t="s">
         <v>65</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3" t="s">
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
         <v>65</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3" t="s">
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+      <c r="A88" t="s">
         <v>72</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" t="s">
         <v>27</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3" t="s">
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="5">
         <f>(B78-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="34" t="s">
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="34" t="s">
+      <c r="F89" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
+      <c r="B91" s="5"/>
     </row>
     <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -3732,7 +3418,7 @@
       <c r="A95" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3793,56 +3479,48 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+      <c r="A100" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3" t="s">
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
         <v>18</v>
       </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3">
+      <c r="I100">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" t="s">
         <v>53</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K100" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+      <c r="A101" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>1.00057</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3" t="s">
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3850,288 +3528,222 @@
       <c r="A102" t="s">
         <v>34</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3" t="s">
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+      <c r="A103" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3" t="s">
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+      <c r="A104" t="s">
         <v>56</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3" t="s">
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+      <c r="A105" t="s">
         <v>58</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3" t="s">
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" t="s">
         <v>19</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3" t="s">
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+      <c r="A107" t="s">
         <v>62</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3" t="s">
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+      <c r="A108" t="s">
         <v>47</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" t="s">
         <v>48</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3" t="s">
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+      <c r="A109" t="s">
         <v>64</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" t="s">
         <v>65</v>
       </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3" t="s">
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+      <c r="A110" t="s">
         <v>67</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="3" t="s">
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3" t="s">
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+      <c r="A111" t="s">
         <v>72</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" t="s">
         <v>27</v>
       </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3" t="s">
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B112" s="35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" s="5">
         <f>(B101-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="34" t="s">
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
         <v>16</v>
       </c>
-      <c r="F112" s="34" t="s">
+      <c r="F112" t="s">
         <v>17</v>
       </c>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="34"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
@@ -4161,7 +3773,7 @@
       <c r="A117" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4222,56 +3834,48 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+      <c r="A122" t="s">
         <v>137</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>1</v>
       </c>
       <c r="C122" t="s">
         <v>25</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3" t="s">
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
         <v>18</v>
       </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3">
+      <c r="I122">
         <v>100</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J122" t="s">
         <v>53</v>
       </c>
-      <c r="K122" s="3" t="s">
+      <c r="K122" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+      <c r="A123" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123">
         <v>1.00057</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3" t="s">
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4279,288 +3883,222 @@
       <c r="A124" t="s">
         <v>34</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C124" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" t="s">
         <v>7</v>
       </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3" t="s">
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+      <c r="A125" t="s">
         <v>54</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" t="s">
         <v>48</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3" t="s">
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+      <c r="A126" t="s">
         <v>56</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" t="s">
         <v>15</v>
       </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3" t="s">
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+      <c r="A127" t="s">
         <v>58</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="3" t="s">
+      <c r="C127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3" t="s">
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+      <c r="A128" t="s">
         <v>60</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3" t="s">
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+      <c r="A129" t="s">
         <v>62</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" t="s">
         <v>27</v>
       </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3" t="s">
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+      <c r="A130" t="s">
         <v>47</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" t="s">
         <v>48</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3" t="s">
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+      <c r="A131" t="s">
         <v>64</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" t="s">
         <v>48</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" t="s">
         <v>65</v>
       </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3" t="s">
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+      <c r="A132" t="s">
         <v>67</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D132" s="3" t="s">
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" t="s">
         <v>65</v>
       </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3" t="s">
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+      <c r="A133" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" t="s">
         <v>27</v>
       </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3" t="s">
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B134" s="35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="5">
         <f>(B123-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="34" t="s">
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
         <v>16</v>
       </c>
-      <c r="F134" s="34" t="s">
+      <c r="F134" t="s">
         <v>17</v>
       </c>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="34"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
@@ -4590,7 +4128,7 @@
       <c r="A139" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4651,56 +4189,48 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+      <c r="A144" t="s">
         <v>138</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
         <v>25</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3" t="s">
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
         <v>18</v>
       </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3">
+      <c r="I144">
         <v>100</v>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="J144" t="s">
         <v>53</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="K144" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+      <c r="A145" t="s">
         <v>130</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145">
         <v>1.00057</v>
       </c>
       <c r="C145" t="s">
         <v>25</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3" t="s">
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4708,288 +4238,222 @@
       <c r="A146" t="s">
         <v>34</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C146" t="s">
         <v>25</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" t="s">
         <v>7</v>
       </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3" t="s">
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+      <c r="A147" t="s">
         <v>54</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" t="s">
         <v>48</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3" t="s">
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+      <c r="A148" t="s">
         <v>56</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" t="s">
         <v>15</v>
       </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3" t="s">
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="K148" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+      <c r="A149" t="s">
         <v>58</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" s="3" t="s">
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" t="s">
         <v>6</v>
       </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3" t="s">
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
+      <c r="A150" t="s">
         <v>60</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3" t="s">
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="K150" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+      <c r="A151" t="s">
         <v>62</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" t="s">
         <v>48</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" t="s">
         <v>27</v>
       </c>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3" t="s">
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
+      <c r="A152" t="s">
         <v>47</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" t="s">
         <v>48</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3" t="s">
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="K152" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
+      <c r="A153" t="s">
         <v>64</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" t="s">
         <v>48</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" t="s">
         <v>65</v>
       </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3" t="s">
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="K153" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+      <c r="A154" t="s">
         <v>67</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" t="s">
         <v>65</v>
       </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3" t="s">
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="K154" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
+      <c r="A155" t="s">
         <v>72</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" t="s">
         <v>48</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" t="s">
         <v>27</v>
       </c>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3" t="s">
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="K155" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" s="35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="5">
         <f>(B145-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156" s="34" t="s">
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
         <v>16</v>
       </c>
-      <c r="F156" s="34" t="s">
+      <c r="F156" t="s">
         <v>17</v>
       </c>
-      <c r="G156" s="34"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="34"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="3"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
@@ -5019,7 +4483,7 @@
       <c r="A161" t="s">
         <v>2</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5080,56 +4544,48 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+      <c r="A166" t="s">
         <v>139</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3" t="s">
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
         <v>18</v>
       </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3">
+      <c r="I166">
         <v>100</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J166" t="s">
         <v>53</v>
       </c>
-      <c r="K166" s="3" t="s">
+      <c r="K166" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+      <c r="A167" t="s">
         <v>131</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167">
         <v>1.00057</v>
       </c>
       <c r="C167" t="s">
         <v>25</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3" t="s">
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5137,301 +4593,225 @@
       <c r="A168" t="s">
         <v>34</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C168" t="s">
         <v>25</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" t="s">
         <v>7</v>
       </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3" t="s">
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+      <c r="A169" t="s">
         <v>54</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" t="s">
         <v>48</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3" t="s">
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+      <c r="A170" t="s">
         <v>56</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" t="s">
         <v>19</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3" t="s">
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
+      <c r="A171" t="s">
         <v>58</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D171" s="3" t="s">
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3" t="s">
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+      <c r="A172" t="s">
         <v>60</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" t="s">
         <v>19</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3" t="s">
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="K172" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
+      <c r="A173" t="s">
         <v>62</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" t="s">
         <v>48</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" t="s">
         <v>27</v>
       </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3" t="s">
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="K173" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
+      <c r="A174" t="s">
         <v>47</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" t="s">
         <v>48</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3" t="s">
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
+      <c r="A175" t="s">
         <v>64</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" t="s">
         <v>48</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" t="s">
         <v>65</v>
       </c>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3" t="s">
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+      <c r="A176" t="s">
         <v>67</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="C176" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" t="s">
         <v>65</v>
       </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3" t="s">
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="K176" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+      <c r="A177" t="s">
         <v>72</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B177" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" t="s">
         <v>48</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" t="s">
         <v>27</v>
       </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3" t="s">
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="K177" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B178" s="35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" s="5">
         <f>(B167-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C178" s="34"/>
-      <c r="D178" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E178" s="34" t="s">
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
         <v>16</v>
       </c>
-      <c r="F178" s="34" t="s">
+      <c r="F178" t="s">
         <v>17</v>
       </c>
-      <c r="G178" s="34"/>
-      <c r="H178" s="34"/>
-      <c r="I178" s="34"/>
-      <c r="J178" s="34"/>
-      <c r="K178" s="34"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="3"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
@@ -5453,7 +4833,7 @@
       <c r="A183" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5493,7 +4873,7 @@
       <c r="A188" t="s">
         <v>22</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5532,10 +4912,10 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
+      <c r="A191" t="s">
         <v>129</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191">
         <v>1</v>
       </c>
       <c r="C191" t="s">
@@ -5545,13 +4925,13 @@
         <v>13</v>
       </c>
       <c r="E191" s="2"/>
-      <c r="F191" s="3" t="s">
+      <c r="F191" t="s">
         <v>18</v>
       </c>
       <c r="G191" t="s">
         <v>46</v>
       </c>
-      <c r="H191" s="3" t="s">
+      <c r="H191" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5559,7 +4939,7 @@
       <c r="A192" t="s">
         <v>121</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="4">
         <v>2.3730000000000002</v>
       </c>
       <c r="C192" t="s">
@@ -5580,9 +4960,9 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>155</v>
-      </c>
-      <c r="B193" s="5">
+        <v>154</v>
+      </c>
+      <c r="B193" s="4">
         <v>0.11</v>
       </c>
       <c r="D193" t="s">
@@ -5605,7 +4985,7 @@
       <c r="A194" t="s">
         <v>34</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="4">
         <f>18.4/1000*B192</f>
         <v>4.3663200000000006E-2</v>
       </c>
@@ -5626,10 +5006,10 @@
       </c>
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="4">
         <f>0.01*B192</f>
         <v>2.3730000000000001E-2</v>
       </c>
@@ -5645,15 +5025,15 @@
       <c r="G195" t="s">
         <v>24</v>
       </c>
-      <c r="H195" s="36" t="s">
-        <v>158</v>
+      <c r="H195" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I195" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B196" s="5"/>
+      <c r="B196" s="4"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
@@ -5675,7 +5055,7 @@
       <c r="A199" t="s">
         <v>2</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5715,7 +5095,7 @@
       <c r="A204" t="s">
         <v>22</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5754,10 +5134,10 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+      <c r="A207" t="s">
         <v>125</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207">
         <v>1</v>
       </c>
       <c r="C207" t="s">
@@ -5767,13 +5147,13 @@
         <v>13</v>
       </c>
       <c r="E207" s="2"/>
-      <c r="F207" s="3" t="s">
+      <c r="F207" t="s">
         <v>18</v>
       </c>
       <c r="G207" t="s">
         <v>46</v>
       </c>
-      <c r="H207" s="3" t="s">
+      <c r="H207" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5781,7 +5161,7 @@
       <c r="A208" t="s">
         <v>121</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="4">
         <v>1.93</v>
       </c>
       <c r="C208" t="s">
@@ -5802,16 +5182,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>157</v>
-      </c>
-      <c r="B209" s="5">
+        <v>156</v>
+      </c>
+      <c r="B209" s="4">
         <v>0.5</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5827,7 +5207,7 @@
       <c r="A210" t="s">
         <v>34</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="4">
         <f>18.4/1000*B208</f>
         <v>3.5511999999999995E-2</v>
       </c>
@@ -5848,10 +5228,10 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="4">
         <f>0.01*B208</f>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -5867,15 +5247,15 @@
       <c r="G211" t="s">
         <v>24</v>
       </c>
-      <c r="H211" s="36" t="s">
-        <v>158</v>
+      <c r="H211" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I211" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B212" s="5"/>
+      <c r="B212" s="4"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
@@ -5897,7 +5277,7 @@
       <c r="A215" t="s">
         <v>2</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5937,7 +5317,7 @@
       <c r="A220" t="s">
         <v>22</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5976,10 +5356,10 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+      <c r="A223" t="s">
         <v>130</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223">
         <v>1</v>
       </c>
       <c r="C223" t="s">
@@ -5989,13 +5369,13 @@
         <v>13</v>
       </c>
       <c r="E223" s="2"/>
-      <c r="F223" s="3" t="s">
+      <c r="F223" t="s">
         <v>18</v>
       </c>
       <c r="G223" t="s">
         <v>46</v>
       </c>
-      <c r="H223" s="3" t="s">
+      <c r="H223" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6003,7 +5383,7 @@
       <c r="A224" t="s">
         <v>121</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="4">
         <v>2.4510000000000001</v>
       </c>
       <c r="C224" t="s">
@@ -6024,9 +5404,9 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>155</v>
-      </c>
-      <c r="B225" s="5">
+        <v>154</v>
+      </c>
+      <c r="B225" s="4">
         <v>0.2</v>
       </c>
       <c r="D225" t="s">
@@ -6049,7 +5429,7 @@
       <c r="A226" t="s">
         <v>34</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="4">
         <f>18.4/1000*B224</f>
         <v>4.5098400000000004E-2</v>
       </c>
@@ -6070,10 +5450,10 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="4">
         <f>0.01*B224</f>
         <v>2.4510000000000001E-2</v>
       </c>
@@ -6089,15 +5469,15 @@
       <c r="G227" t="s">
         <v>24</v>
       </c>
-      <c r="H227" s="36" t="s">
-        <v>158</v>
+      <c r="H227" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I227" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B228" s="5"/>
+      <c r="B228" s="4"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
@@ -6119,7 +5499,7 @@
       <c r="A231" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6159,7 +5539,7 @@
       <c r="A236" t="s">
         <v>22</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6198,10 +5578,10 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
+      <c r="A239" t="s">
         <v>126</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239">
         <v>1</v>
       </c>
       <c r="C239" t="s">
@@ -6211,13 +5591,13 @@
         <v>13</v>
       </c>
       <c r="E239" s="2"/>
-      <c r="F239" s="3" t="s">
+      <c r="F239" t="s">
         <v>18</v>
       </c>
       <c r="G239" t="s">
         <v>46</v>
       </c>
-      <c r="H239" s="3" t="s">
+      <c r="H239" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6225,7 +5605,7 @@
       <c r="A240" t="s">
         <v>121</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B240" s="4">
         <v>2.57</v>
       </c>
       <c r="C240" t="s">
@@ -6246,9 +5626,9 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>155</v>
-      </c>
-      <c r="B241" s="5">
+        <v>154</v>
+      </c>
+      <c r="B241" s="4">
         <v>0.36</v>
       </c>
       <c r="D241" t="s">
@@ -6271,7 +5651,7 @@
       <c r="A242" t="s">
         <v>34</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B242" s="4">
         <f>18.4/1000*B240</f>
         <v>4.7287999999999997E-2</v>
       </c>
@@ -6292,10 +5672,10 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="4">
         <f>0.01*B240</f>
         <v>2.5700000000000001E-2</v>
       </c>
@@ -6311,18 +5691,18 @@
       <c r="G243" t="s">
         <v>24</v>
       </c>
-      <c r="H243" s="36" t="s">
-        <v>158</v>
+      <c r="H243" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I243" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B244" s="5"/>
+      <c r="B244" s="4"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B245" s="5"/>
+      <c r="B245" s="4"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
@@ -6344,7 +5724,7 @@
       <c r="A248" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6384,7 +5764,7 @@
       <c r="A253" t="s">
         <v>22</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6423,10 +5803,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
+      <c r="A256" t="s">
         <v>131</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256">
         <v>1</v>
       </c>
       <c r="C256" t="s">
@@ -6436,13 +5816,13 @@
         <v>13</v>
       </c>
       <c r="E256" s="2"/>
-      <c r="F256" s="3" t="s">
+      <c r="F256" t="s">
         <v>18</v>
       </c>
       <c r="G256" t="s">
         <v>46</v>
       </c>
-      <c r="H256" s="3" t="s">
+      <c r="H256" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6450,7 +5830,7 @@
       <c r="A257" t="s">
         <v>121</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257" s="4">
         <v>2.371</v>
       </c>
       <c r="C257" t="s">
@@ -6471,9 +5851,9 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>155</v>
-      </c>
-      <c r="B258" s="5">
+        <v>154</v>
+      </c>
+      <c r="B258" s="4">
         <v>0.11</v>
       </c>
       <c r="D258" t="s">
@@ -6496,7 +5876,7 @@
       <c r="A259" t="s">
         <v>34</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259" s="4">
         <f>18.4/1000*B257</f>
         <v>4.3626399999999996E-2</v>
       </c>
@@ -6517,10 +5897,10 @@
       </c>
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B260" s="5">
+      <c r="B260" s="4">
         <f>0.01*B257</f>
         <v>2.3710000000000002E-2</v>
       </c>
@@ -6536,15 +5916,15 @@
       <c r="G260" t="s">
         <v>24</v>
       </c>
-      <c r="H260" s="36" t="s">
-        <v>158</v>
+      <c r="H260" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I260" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B261" s="5"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
@@ -6566,7 +5946,7 @@
       <c r="A264" t="s">
         <v>2</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6606,7 +5986,7 @@
       <c r="A269" t="s">
         <v>22</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6645,10 +6025,10 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
+      <c r="A272" t="s">
         <v>127</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272">
         <v>1</v>
       </c>
       <c r="C272" t="s">
@@ -6658,13 +6038,13 @@
         <v>13</v>
       </c>
       <c r="E272" s="2"/>
-      <c r="F272" s="3" t="s">
+      <c r="F272" t="s">
         <v>18</v>
       </c>
       <c r="G272" t="s">
         <v>46</v>
       </c>
-      <c r="H272" s="3" t="s">
+      <c r="H272" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6672,7 +6052,7 @@
       <c r="A273" t="s">
         <v>121</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="4">
         <v>4.5599999999999996</v>
       </c>
       <c r="C273" t="s">
@@ -6693,9 +6073,9 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>155</v>
-      </c>
-      <c r="B274" s="5">
+        <v>154</v>
+      </c>
+      <c r="B274" s="4">
         <v>3.11</v>
       </c>
       <c r="D274" t="s">
@@ -6718,7 +6098,7 @@
       <c r="A275" t="s">
         <v>34</v>
       </c>
-      <c r="B275" s="5">
+      <c r="B275" s="4">
         <f>18.4/1000*B273</f>
         <v>8.3903999999999992E-2</v>
       </c>
@@ -6739,10 +6119,10 @@
       </c>
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B276" s="5">
+      <c r="B276" s="4">
         <f>0.01*B273</f>
         <v>4.5599999999999995E-2</v>
       </c>
@@ -6758,18 +6138,18 @@
       <c r="G276" t="s">
         <v>24</v>
       </c>
-      <c r="H276" s="36" t="s">
-        <v>158</v>
+      <c r="H276" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I276" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B277" s="5"/>
+      <c r="B277" s="4"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B278" s="5"/>
+      <c r="B278" s="4"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
@@ -6791,7 +6171,7 @@
       <c r="A281" t="s">
         <v>2</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6831,7 +6211,7 @@
       <c r="A286" t="s">
         <v>22</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6870,10 +6250,10 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
+      <c r="A289" t="s">
         <v>128</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289">
         <v>1</v>
       </c>
       <c r="C289" t="s">
@@ -6883,13 +6263,13 @@
         <v>13</v>
       </c>
       <c r="E289" s="2"/>
-      <c r="F289" s="3" t="s">
+      <c r="F289" t="s">
         <v>18</v>
       </c>
       <c r="G289" t="s">
         <v>46</v>
       </c>
-      <c r="H289" s="3" t="s">
+      <c r="H289" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6897,7 +6277,7 @@
       <c r="A290" t="s">
         <v>121</v>
       </c>
-      <c r="B290" s="5">
+      <c r="B290" s="4">
         <v>2.5350000000000001</v>
       </c>
       <c r="C290" t="s">
@@ -6918,9 +6298,9 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>155</v>
-      </c>
-      <c r="B291" s="5">
+        <v>154</v>
+      </c>
+      <c r="B291" s="4">
         <v>0.46</v>
       </c>
       <c r="D291" t="s">
@@ -6943,7 +6323,7 @@
       <c r="A292" t="s">
         <v>34</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B292" s="4">
         <f>18.4/1000*B290</f>
         <v>4.6644000000000005E-2</v>
       </c>
@@ -6964,10 +6344,10 @@
       </c>
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B293" s="5">
+      <c r="B293" s="4">
         <f>0.01*B290</f>
         <v>2.5350000000000001E-2</v>
       </c>
@@ -6983,15 +6363,15 @@
       <c r="G293" t="s">
         <v>24</v>
       </c>
-      <c r="H293" s="36" t="s">
-        <v>158</v>
+      <c r="H293" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I293" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B294" s="5"/>
+      <c r="B294" s="4"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
@@ -7013,7 +6393,7 @@
       <c r="A297" t="s">
         <v>2</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7053,7 +6433,7 @@
       <c r="A302" t="s">
         <v>22</v>
       </c>
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7092,10 +6472,10 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
+      <c r="A305" t="s">
         <v>124</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305">
         <v>1</v>
       </c>
       <c r="C305" t="s">
@@ -7105,13 +6485,13 @@
         <v>13</v>
       </c>
       <c r="E305" s="2"/>
-      <c r="F305" s="3" t="s">
+      <c r="F305" t="s">
         <v>18</v>
       </c>
       <c r="G305" t="s">
         <v>46</v>
       </c>
-      <c r="H305" s="3" t="s">
+      <c r="H305" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7119,7 +6499,7 @@
       <c r="A306" t="s">
         <v>121</v>
       </c>
-      <c r="B306" s="5">
+      <c r="B306" s="4">
         <v>1.77</v>
       </c>
       <c r="C306" t="s">
@@ -7140,16 +6520,16 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>157</v>
-      </c>
-      <c r="B307" s="5">
+        <v>156</v>
+      </c>
+      <c r="B307" s="4">
         <v>0.57999999999999996</v>
       </c>
       <c r="D307" t="s">
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7165,7 +6545,7 @@
       <c r="A308" t="s">
         <v>34</v>
       </c>
-      <c r="B308" s="5">
+      <c r="B308" s="4">
         <f>18.4/1000*B306</f>
         <v>3.2568E-2</v>
       </c>
@@ -7186,10 +6566,10 @@
       </c>
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B309" s="5">
+      <c r="B309" s="4">
         <f>0.01*B306</f>
         <v>1.77E-2</v>
       </c>
@@ -7205,15 +6585,15 @@
       <c r="G309" t="s">
         <v>24</v>
       </c>
-      <c r="H309" s="36" t="s">
-        <v>158</v>
+      <c r="H309" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I309" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B310" s="5"/>
+      <c r="B310" s="4"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
@@ -7283,7 +6663,7 @@
       <c r="A319" t="s">
         <v>28</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7291,7 +6671,7 @@
       <c r="A320" t="s">
         <v>22</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7397,7 +6777,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7510,24 +6890,24 @@
       <c r="A336" t="s">
         <v>28</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>22</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -7553,7 +6933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>116</v>
       </c>
@@ -7577,7 +6957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>117</v>
       </c>
@@ -7600,11 +6980,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>47</v>
       </c>
-      <c r="B342" s="5">
+      <c r="B342" s="4">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
@@ -7624,11 +7004,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>34</v>
       </c>
-      <c r="B343" s="5">
+      <c r="B343" s="4">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
@@ -7648,11 +7028,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>35</v>
       </c>
-      <c r="B344" s="5">
+      <c r="B344" s="4">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
@@ -7672,11 +7052,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>37</v>
       </c>
-      <c r="B345" s="5">
+      <c r="B345" s="4">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
@@ -7696,11 +7076,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>39</v>
       </c>
-      <c r="B346" s="5">
+      <c r="B346" s="4">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
@@ -7720,11 +7100,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A347" s="4" t="s">
+    <row r="347" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B347" s="5">
+      <c r="B347" s="4">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
@@ -7737,18 +7117,18 @@
       <c r="F347" t="s">
         <v>14</v>
       </c>
-      <c r="G347" s="36" t="s">
-        <v>158</v>
+      <c r="G347" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="H347" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A348" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B348" s="5">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>158</v>
+      </c>
+      <c r="B348" s="4">
         <f>75900000/44900000</f>
         <v>1.6904231625835189</v>
       </c>
@@ -7761,41 +7141,38 @@
       <c r="F348" t="s">
         <v>14</v>
       </c>
-      <c r="G348" s="36" t="s">
-        <v>159</v>
+      <c r="G348" t="s">
+        <v>42</v>
       </c>
       <c r="H348" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A349" s="3" t="s">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
         <v>72</v>
       </c>
-      <c r="B349" s="6">
+      <c r="B349" s="5">
         <f>-B342/1000</f>
         <v>-6.8819599109131407E-2</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C349" t="s">
         <v>48</v>
       </c>
-      <c r="D349" s="3" t="s">
+      <c r="D349" t="s">
         <v>27</v>
       </c>
-      <c r="E349" s="3"/>
-      <c r="F349" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G349" s="3" t="s">
+      <c r="F349" t="s">
+        <v>14</v>
+      </c>
+      <c r="G349" t="s">
         <v>69</v>
       </c>
       <c r="H349" t="s">
         <v>24</v>
       </c>
-      <c r="I349" s="3"/>
-      <c r="J349" s="3"/>
-    </row>
-    <row r="351" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
@@ -7803,7 +7180,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1</v>
       </c>
@@ -8003,10 +7380,10 @@
         <v>152</v>
       </c>
       <c r="B365">
-        <v>5.7536703406069172E-11</v>
+        <v>1.5533182090707562E-11</v>
       </c>
       <c r="C365" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D365" t="s">
         <v>6</v>
@@ -8015,59 +7392,37 @@
         <v>142</v>
       </c>
       <c r="G365" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H365" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B366">
-        <v>1.5533182090707562E-11</v>
+        <v>1</v>
       </c>
       <c r="C366" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D366" t="s">
         <v>6</v>
       </c>
       <c r="F366" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="G366" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="H366" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>116</v>
-      </c>
-      <c r="B367">
-        <v>1</v>
-      </c>
-      <c r="C367" t="s">
-        <v>25</v>
-      </c>
-      <c r="D367" t="s">
-        <v>6</v>
-      </c>
-      <c r="F367" t="s">
-        <v>18</v>
-      </c>
-      <c r="G367" t="s">
-        <v>116</v>
-      </c>
-      <c r="H367" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K366" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B302" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B286" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
